--- a/C1000-8T-2G-L.xlsx
+++ b/C1000-8T-2G-L.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\New folder (2)\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nguyen Vinh Quang\Desktop\cisco_spec\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B46DA5C-4524-4127-9FBD-7ABD11ABEBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41F6ACA4-DC6F-4E80-863F-01F21133EC5A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="14595" windowHeight="8746" xr2:uid="{47789BF5-0E1F-418F-8373-0695E73B4161}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{47789BF5-0E1F-418F-8373-0695E73B4161}"/>
   </bookViews>
   <sheets>
     <sheet name="C1000-8T-2G-L" sheetId="1" r:id="rId1"/>
@@ -110,9 +110,6 @@
     <t>10240 bytes</t>
   </si>
   <si>
-    <t>C1000-8T-2G-L</t>
-  </si>
-  <si>
     <t>20 Gbps</t>
   </si>
   <si>
@@ -172,6 +169,9 @@
   </si>
   <si>
     <t>12 months</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C1000-8T-2G-L </t>
   </si>
 </sst>
 </file>
@@ -682,14 +682,14 @@
       <selection activeCell="B2" sqref="B2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="3.1328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.1328125" customWidth="1"/>
-    <col min="3" max="4" width="30.06640625" customWidth="1"/>
+    <col min="1" max="1" width="3.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.109375" customWidth="1"/>
+    <col min="3" max="4" width="30.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -700,44 +700,44 @@
         <v>2</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="4">
         <v>1</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C2" s="11"/>
       <c r="D2" s="10"/>
     </row>
-    <row r="3" spans="1:4" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A3" s="5"/>
       <c r="B3" s="8" t="s">
         <v>3</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.45">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A4" s="5"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.45">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="5"/>
       <c r="B5" s="6" t="s">
         <v>5</v>
@@ -749,7 +749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="5"/>
       <c r="B6" s="6" t="s">
         <v>7</v>
@@ -761,19 +761,19 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:4" ht="41.65" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A7" s="7"/>
       <c r="B7" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="5"/>
       <c r="B8" s="8" t="s">
         <v>9</v>
@@ -785,7 +785,7 @@
         <v>4094</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="5"/>
       <c r="B9" s="8" t="s">
         <v>22</v>
@@ -797,7 +797,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="5"/>
       <c r="B10" s="6" t="s">
         <v>10</v>
@@ -809,10 +809,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="97.15" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A11" s="9"/>
       <c r="B11" s="6" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>11</v>
@@ -821,7 +821,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="41.65" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:4" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A12" s="12"/>
       <c r="B12" s="13" t="s">
         <v>12</v>
@@ -833,7 +833,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="13" spans="1:4" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="13"/>
       <c r="C13" s="8" t="s">
@@ -843,7 +843,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="13"/>
       <c r="C14" s="8" t="s">
@@ -853,7 +853,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:4" ht="27.6" x14ac:dyDescent="0.3">
       <c r="A15" s="12"/>
       <c r="B15" s="13"/>
       <c r="C15" s="8" t="s">
@@ -863,7 +863,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="5"/>
       <c r="B16" s="6" t="s">
         <v>17</v>
@@ -875,17 +875,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C17" s="17"/>
     </row>
-    <row r="18" spans="1:4" ht="97.15" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:4" ht="110.4" x14ac:dyDescent="0.3">
       <c r="A18" s="15"/>
       <c r="B18" s="6" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C18" s="6" t="s">
         <v>19</v>
@@ -894,64 +894,64 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="15"/>
       <c r="B19" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="6" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="69.400000000000006" x14ac:dyDescent="0.45">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="69" x14ac:dyDescent="0.3">
       <c r="A20" s="15"/>
       <c r="B20" s="6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C20" s="6" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="15"/>
       <c r="B21" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D21" s="6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="15"/>
       <c r="B22" s="6" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D22" s="6" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="16"/>
       <c r="B23" s="6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>21</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
